--- a/sict/day7/최종Test Folder/output/2023년05월16일 코로나 확진자 정리본_답.xlsx
+++ b/sict/day7/최종Test Folder/output/2023년05월16일 코로나 확진자 정리본_답.xlsx
@@ -1,33 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vil\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Jun\learning-uipath\sict\day7\최종Test Folder\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEBB9682-07E0-4DBB-81A9-E8D37B3509D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="확진자 자료" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <x:ext xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
-    </x:ext>
+    </ext>
   </extLst>
 </workbook>
 </file>
@@ -246,10 +249,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="3">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="177" formatCode="0.0%"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -340,7 +344,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -365,28 +369,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -704,11 +705,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:M373"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -717,8 +718,8 @@
     <col min="2" max="4" width="14.69921875" customWidth="1"/>
     <col min="5" max="10" width="15.69921875" customWidth="1"/>
     <col min="11" max="11" width="9.09765625" customWidth="1"/>
-    <col min="12" max="12" width="51.19921875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="8.69921875" style="6" customWidth="1"/>
+    <col min="12" max="12" width="47.09765625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="12.796875" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -727,9 +728,9 @@
       <c r="L2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="M2" s="5">
-        <f>SUM(B9:B39) /31</f>
-        <v>27933.064516129034</v>
+      <c r="M2" s="12">
+        <f>ROUND(SUM(B9:B39) /31, 1)</f>
+        <v>27933.1</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.4">
@@ -745,16 +746,16 @@
       <c r="L4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="M4" s="11">
+      <c r="M4" s="5">
         <f>MAX(B70:B100)</f>
         <v>100191</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="L5" s="12" t="s">
+      <c r="L5" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="M5" s="13">
+      <c r="M5" s="5">
         <f>MIN(B101:B131)</f>
         <v>43100</v>
       </c>
@@ -772,7 +773,7 @@
       <c r="L7" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="M7" s="13">
+      <c r="M7" s="5">
         <f>SUM(B9:B373)</f>
         <v>13935343</v>
       </c>
@@ -811,7 +812,7 @@
       <c r="L8" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="M8" s="15">
+      <c r="M8" s="14">
         <f>(SUM(H9:H373) / SUM(B9:B373))</f>
         <v>1.2429403424085076E-2</v>
       </c>
@@ -850,7 +851,7 @@
       <c r="L9" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="M9" s="14">
+      <c r="M9" s="13">
         <f>COUNTIF(G9:G373, "&lt;= 2000")</f>
         <v>29</v>
       </c>
